--- a/20.開発/90.フォーマット/API仕様書フォーマット/【eternal】API仕様書_APIID_API名.xlsx
+++ b/20.開発/90.フォーマット/API仕様書フォーマット/【eternal】API仕様書_APIID_API名.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4060B336-E43F-4567-8039-3F1618D5E404}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/90.フォーマット/API仕様書フォーマット/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -23,9 +27,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(API名)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(API名)'!$A$1:$BV$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">リクエスト!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">レスポンス!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'概要(API名)'!$1:$4</definedName>
@@ -39,7 +43,15 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -191,19 +203,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・APIを使用する画面を記載する</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -350,10 +349,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・パスパラメータ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>・body</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -365,11 +360,28 @@
     <t>Array</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>・以下の画面でAPIを使用する</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメンデ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・クエリパラメータ</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;改訂日 &quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;バージョン &quot;@"/>
@@ -380,14 +392,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -395,14 +407,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -424,7 +436,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -506,16 +518,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,27 +564,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,10 +592,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,13 +712,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -720,8 +732,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -761,7 +773,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -769,7 +781,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="82643" y="120700"/>
+          <a:off x="74705" y="116731"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -780,7 +792,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -845,7 +857,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -910,7 +922,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -975,7 +987,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1040,7 +1052,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1105,7 +1117,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1170,7 +1182,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1242,7 +1254,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1314,7 +1326,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1368,7 +1380,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日</a:t>
+              <a:t>2018年11月30日 金曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1386,7 +1398,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1458,7 +1470,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1530,7 +1542,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1623,7 +1635,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1643,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="82643" y="120700"/>
+          <a:off x="74705" y="116731"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -1642,7 +1654,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1707,7 +1719,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1772,7 +1784,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1837,7 +1849,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1902,7 +1914,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1967,7 +1979,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2032,7 +2044,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2104,7 +2116,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2176,7 +2188,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2230,7 +2242,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日</a:t>
+              <a:t>2018年11月30日 金曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2248,7 +2260,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2320,7 +2332,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2392,7 +2404,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2485,7 +2497,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2516,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2569,7 +2581,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2634,7 +2646,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2699,7 +2711,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2764,7 +2776,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2829,7 +2841,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2894,7 +2906,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2966,7 +2978,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3038,7 +3050,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3092,7 +3104,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日</a:t>
+              <a:t>2018年11月30日 金曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3110,7 +3122,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3182,7 +3194,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3254,7 +3266,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3354,7 +3366,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3399,9 +3411,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3429,31 +3441,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3481,23 +3476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3673,35 +3651,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="1"/>
-    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.125" style="1"/>
+    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="1"/>
+    <col min="3" max="3" width="3.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="26" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="35" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="str">
         <f ca="1">SUBSTITUTE(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("]",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1),".xlsx","")</f>
         <v>【eternal】API仕様書_APIID_API名</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -3727,7 +3705,7 @@
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
     </row>
-    <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3779,12 +3757,12 @@
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="2:51" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:51" ht="20" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AO27" s="30">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43434</v>
@@ -3800,7 +3778,7 @@
       <c r="AX27" s="31"/>
       <c r="AY27" s="31"/>
     </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AR28" s="32" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
         <v>0.0.1</v>
@@ -3813,10 +3791,10 @@
       <c r="AX28" s="32"/>
       <c r="AY28" s="32"/>
     </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AR31" s="6"/>
     </row>
-    <row r="35" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AO27:AY27"/>
@@ -3830,31 +3808,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -3868,135 +3846,135 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="9">
         <v>43434</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4010,28 +3988,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="12"/>
-    <col min="76" max="82" width="8.75" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="12"/>
+    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.1640625" style="12"/>
+    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4051,7 +4029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4068,32 +4046,32 @@
       <c r="CB3" s="14"/>
       <c r="CC3" s="13"/>
     </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" ht="19.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81" ht="20" x14ac:dyDescent="0.35">
       <c r="C10" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="23"/>
       <c r="H10" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
@@ -4122,16 +4100,16 @@
       <c r="AG10" s="28"/>
       <c r="AH10" s="23"/>
     </row>
-    <row r="11" spans="2:81" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:81" ht="20" x14ac:dyDescent="0.35">
       <c r="C11" s="34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="36"/>
       <c r="H11" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -4160,23 +4138,23 @@
       <c r="AG11" s="16"/>
       <c r="AH11" s="17"/>
     </row>
-    <row r="13" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C15" s="22" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C15" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -4193,7 +4171,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="26"/>
       <c r="T15" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
@@ -4210,7 +4188,7 @@
       <c r="AG15" s="25"/>
       <c r="AH15" s="26"/>
     </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C16" s="19">
         <v>1</v>
       </c>
@@ -4252,7 +4230,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4263,28 +4241,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7AE70-EEC0-4148-9BA2-8D4B9BF14C07}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="12"/>
-    <col min="76" max="82" width="8.75" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="12"/>
+    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.1640625" style="12"/>
+    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4304,7 +4282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4321,30 +4299,30 @@
       <c r="CB3" s="14"/>
       <c r="CC3" s="13"/>
     </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BX7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CA7" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C8" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -4353,7 +4331,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="23"/>
       <c r="L8" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -4362,7 +4340,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="23"/>
       <c r="S8" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
@@ -4371,7 +4349,7 @@
       <c r="X8" s="28"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
@@ -4402,97 +4380,97 @@
       <c r="AW8" s="28"/>
       <c r="AX8" s="23"/>
       <c r="BX8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CA8" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C9" s="39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C9" s="37">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
       <c r="BX9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="BX10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="CA9" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="BX10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="CA10" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="BX11" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="CA11" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:81" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C12" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -4501,7 +4479,7 @@
       <c r="J12" s="28"/>
       <c r="K12" s="23"/>
       <c r="L12" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
@@ -4510,7 +4488,7 @@
       <c r="Q12" s="28"/>
       <c r="R12" s="23"/>
       <c r="S12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T12" s="28"/>
       <c r="U12" s="28"/>
@@ -4519,7 +4497,7 @@
       <c r="X12" s="28"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA12" s="28"/>
       <c r="AB12" s="28"/>
@@ -4550,64 +4528,71 @@
       <c r="AW12" s="28"/>
       <c r="AX12" s="23"/>
       <c r="CA12" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C13" s="39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C13" s="37">
         <f>ROW()-ROW($C$12)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+      <c r="AM13" s="39"/>
+      <c r="AN13" s="39"/>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
     <mergeCell ref="S9:Y9"/>
     <mergeCell ref="Z9:AF9"/>
     <mergeCell ref="AG9:AH9"/>
@@ -4615,17 +4600,10 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:K9"/>
     <mergeCell ref="L9:R9"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AX13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9 AG13:AH13" xr:uid="{B11C77B4-8DBD-4E2A-A69B-3145CEC07D64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9 AG13:AH13">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4636,28 +4614,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BA1B60-6C26-461A-9198-DED2C2EF8FDC}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC12"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="12"/>
-    <col min="76" max="82" width="8.75" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="12"/>
+    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.1640625" style="12"/>
+    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4677,7 +4655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4694,30 +4672,30 @@
       <c r="CB3" s="14"/>
       <c r="CC3" s="13"/>
     </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BX7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CA7" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C8" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -4726,7 +4704,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="23"/>
       <c r="L8" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -4735,7 +4713,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="23"/>
       <c r="S8" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
@@ -4744,7 +4722,7 @@
       <c r="X8" s="28"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
@@ -4775,13 +4753,13 @@
       <c r="AW8" s="28"/>
       <c r="AX8" s="23"/>
       <c r="BX8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CA8" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C9" s="41">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
@@ -4834,31 +4812,31 @@
       <c r="AW9" s="40"/>
       <c r="AX9" s="40"/>
       <c r="BX9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA9" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="BX10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="CA10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="CA9" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="BX10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="CA10" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:81" x14ac:dyDescent="0.25">
       <c r="BX11" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="CA11" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="CA12" s="12" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="CA12" s="12" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4873,7 +4851,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9" xr:uid="{188E9197-BB40-4EC9-97A2-32CA993B959B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG9:AH9">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
